--- a/4_semestr/VichMath/Lab1/Половинное деление.xlsx
+++ b/4_semestr/VichMath/Lab1/Половинное деление.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshen\Documents\GitHub\labs\4_semestr\VichMath\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C17E87-35CD-4CB2-B81E-F5F10BEA5A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1AEB05-26A2-47FD-8F46-D8DFE9514253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="15" windowWidth="24450" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Половинное деление" sheetId="1" r:id="rId1"/>
+    <sheet name="Хорды и касательные" sheetId="2" r:id="rId2"/>
+    <sheet name="Простые итерации" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>x:</t>
   </si>
@@ -69,16 +70,48 @@
   <si>
     <t>f'(a)</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>x(0) =</t>
+  </si>
+  <si>
+    <t>f(x^k)</t>
+  </si>
+  <si>
+    <t>x^k</t>
+  </si>
+  <si>
+    <t>phi(x^k)</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>ответ</t>
+  </si>
+  <si>
+    <t>лямбда</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,17 +164,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -150,6 +183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -254,7 +289,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$38</c:f>
+              <c:f>'Половинное деление'!$B$4:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -368,114 +403,114 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$38</c:f>
+              <c:f>'Половинное деление'!$C$4:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>-0.60406754950741304</c:v>
+                  <c:v>-1.0648065571524983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.52961500391050642</c:v>
+                  <c:v>-0.80337486719551621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.42433210611934546</c:v>
+                  <c:v>-0.42447101993600966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.29800525205498485</c:v>
+                  <c:v>-8.2352616039814253E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.16431884721379175</c:v>
+                  <c:v>4.3985267645745729E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.8602431567988482E-2</c:v>
+                  <c:v>-0.13413487784362332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4660969326471696E-2</c:v>
+                  <c:v>-0.5143424150030721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1341778280820729</c:v>
+                  <c:v>-0.81697538858835772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16367249731470168</c:v>
+                  <c:v>-0.76530528628790906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15291506282905831</c:v>
+                  <c:v>-0.34001376811565509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10778832700146879</c:v>
+                  <c:v>0.12530291018431661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9384747075941862E-2</c:v>
+                  <c:v>0.19257293166122524</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.7723064207162982E-2</c:v>
+                  <c:v>-0.22299203635004383</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.10776444848507083</c:v>
+                  <c:v>-0.66399328285018644</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.15624453346607292</c:v>
+                  <c:v>-0.57077466716878789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.17221876277602499</c:v>
+                  <c:v>5.3440241877162897E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.15000866463924467</c:v>
+                  <c:v>0.34231027689927584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9.0087690539560894E-2</c:v>
+                  <c:v>-3.3825149089449669E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0029606628991772E-3</c:v>
+                  <c:v>-0.5730318122645075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11169543006206872</c:v>
+                  <c:v>-0.39979903031853758</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2272289850789615</c:v>
+                  <c:v>0.26648524848897681</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33198711592149288</c:v>
+                  <c:v>0.31804511466111962</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41196907026895957</c:v>
+                  <c:v>-0.34112009210066296</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.45700571238698418</c:v>
+                  <c:v>-0.4611702476823436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.46236994460850278</c:v>
+                  <c:v>0.24866841514849902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42952750314652266</c:v>
+                  <c:v>0.39008674528525678</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.36590964695790329</c:v>
+                  <c:v>-0.3298838641699815</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28374367232910336</c:v>
+                  <c:v>-0.31528422161775072</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.19812592811796303</c:v>
+                  <c:v>0.45334812529766344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.12464159377889783</c:v>
+                  <c:v>0.2067963592641282</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.6907034038911526E-2</c:v>
+                  <c:v>-0.44584128263994738</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.4422763777831404E-2</c:v>
+                  <c:v>0.16232457712714177</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.1076014955512985E-2</c:v>
+                  <c:v>0.50806449935696651</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.15452933683070547</c:v>
+                  <c:v>-0.30307566365476624</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.24659177321476178</c:v>
+                  <c:v>-3.2575138183854602E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,7 +1512,7 @@
   <dimension ref="B1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,38 +1565,38 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C38" si="0">(SIN($B4+3)^2)/2+(LN($B4+2))/2-1</f>
-        <v>-0.60406754950741304</v>
+        <f>(SIN(($B4+3)^2/2))/2+(LN($B4+2))/2-1</f>
+        <v>-1.0648065571524983</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G38" si="1">(E4+F4)/2</f>
-        <v>1</v>
+        <f t="shared" ref="G4:G38" si="0">(E4+F4)/2</f>
+        <v>0.9</v>
       </c>
       <c r="J4" s="1">
         <f>(SIN(((E4+3)^2)/2))/2+(LN(E4+2))/2-1</f>
-        <v>-1.0648065571524983</v>
+        <v>-8.2352616039814253E-2</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:L19" si="2">(SIN(((F4+3)^2)/2))/2+(LN(F4+2))/2-1</f>
-        <v>-0.76530528628790906</v>
+        <f>(SIN(((F4+3)^2)/2))/2+(LN(F4+2))/2-1</f>
+        <v>4.3985267645745729E-2</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3985267645745729E-2</v>
+        <f t="shared" ref="K4:L19" si="1">(SIN(((G4+3)^2)/2))/2+(LN(G4+2))/2-1</f>
+        <v>1.6937302015779032E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M38" si="3">IF(SIGN(L4)&lt;0,L4*-1,L4)</f>
-        <v>4.3985267645745729E-2</v>
+        <f t="shared" ref="M4:M38" si="2">IF(SIGN(L4)&lt;0,L4*-1,L4)</f>
+        <v>1.6937302015779032E-2</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N38" si="4">J4*L4</f>
-        <v>-4.6835801407297685E-2</v>
+        <f t="shared" ref="N4:N38" si="3">J4*L4</f>
+        <v>-1.3948311296558226E-3</v>
       </c>
       <c r="O4">
         <f>IF(M4&lt;$F$1,G4,0)</f>
@@ -1572,41 +1607,41 @@
       <c r="B5">
         <v>0.4</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-0.52961500391050642</v>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C38" si="4">(SIN(($B5+3)^2/2))/2+(LN($B5+2))/2-1</f>
+        <v>-0.80337486719551621</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ref="E5:E38" si="5">IF(N4&lt;0,E4,G4)</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F38" si="6">IF(N4&gt;0,F4,G4)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J38" si="7">(SIN(((E5+3)^2)/2))/2+(LN(E5+2))/2-1</f>
-        <v>-1.0648065571524983</v>
+        <v>-8.2352616039814253E-2</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3985267645745729E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.6937302015779032E-2</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.42447101993600966</v>
+        <f t="shared" si="1"/>
+        <v>-2.4548113656577497E-2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
-        <v>0.42447101993600966</v>
+        <f t="shared" si="2"/>
+        <v>2.4548113656577497E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
-        <v>0.45197952534907193</v>
+        <f t="shared" si="3"/>
+        <v>2.0216013784618474E-3</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" ref="O5:O38" si="8">IF(M5&lt;$F$1,G5,0)</f>
@@ -1617,41 +1652,41 @@
       <c r="B6" s="4">
         <v>0.6</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-0.42433210611934546</v>
+      <c r="C6" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.42447101993600966</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="7"/>
-        <v>-0.42447101993600966</v>
+        <v>-2.4548113656577497E-2</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3985267645745729E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.6937302015779032E-2</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.2352616039814253E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.6339567226766327E-3</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
-        <v>8.2352616039814253E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6339567226766327E-3</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
-        <v>3.4956298924818545E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0110555338194857E-5</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="8"/>
@@ -1662,41 +1697,41 @@
       <c r="B7">
         <v>0.79999999999999993</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-0.29800525205498485</v>
+      <c r="C7" s="4">
+        <f t="shared" si="4"/>
+        <v>-8.2352616039814253E-2</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f t="shared" si="0"/>
+        <v>0.88749999999999996</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="7"/>
-        <v>-8.2352616039814253E-2</v>
+        <v>-1.6339567226766327E-3</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3985267645745729E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.6937302015779032E-2</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6937302015779032E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2091849000991424E-3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
-        <v>1.6937302015779032E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.2091849000991424E-3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
-        <v>-1.3948311296558226E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.3413452855212495E-5</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="8"/>
@@ -1707,41 +1742,41 @@
       <c r="B8" s="4">
         <v>0.99999999999999989</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-0.16431884721379175</v>
+      <c r="C8" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3985267645745729E-2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <f t="shared" si="0"/>
+        <v>0.88124999999999998</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="7"/>
-        <v>-8.2352616039814253E-2</v>
+        <v>-1.6339567226766327E-3</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6937302015779032E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2091849000991424E-3</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.4548113656577497E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4252475282798844E-3</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
-        <v>2.4548113656577497E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4252475282798844E-3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
-        <v>2.0216013784618474E-3</v>
+        <f t="shared" si="3"/>
+        <v>-5.5967062256644365E-6</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="8"/>
@@ -1752,41 +1787,41 @@
       <c r="B9">
         <v>1.1999999999999997</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-3.8602431567988482E-2</v>
+      <c r="C9" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13413487784362332</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="5"/>
-        <v>0.85000000000000009</v>
+        <v>0.875</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>0.88124999999999998</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
+        <f t="shared" si="0"/>
+        <v>0.87812500000000004</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="7"/>
-        <v>-2.4548113656577497E-2</v>
+        <v>-1.6339567226766327E-3</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6937302015779032E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4252475282798844E-3</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.6339567226766327E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.298279130323106E-4</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
-        <v>1.6339567226766327E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.298279130323106E-4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>4.0110555338194857E-5</v>
+        <f t="shared" si="3"/>
+        <v>-1.5192985694315273E-6</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="8"/>
@@ -1797,9 +1832,9 @@
       <c r="B10" s="4">
         <v>1.4</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>6.4660969326471696E-2</v>
+      <c r="C10" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.5143424150030721</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="5"/>
@@ -1807,31 +1842,31 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>0.87812500000000004</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.88749999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.87656250000000002</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="7"/>
         <v>-1.6339567226766327E-3</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6937302015779032E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.298279130323106E-4</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="2"/>
-        <v>8.2091849000991424E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.4354748427567472E-4</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
-        <v>8.2091849000991424E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.4354748427567472E-4</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
-        <v>-1.3413452855212495E-5</v>
+        <f t="shared" si="3"/>
+        <v>5.6134172149088351E-7</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="8"/>
@@ -1842,41 +1877,41 @@
       <c r="B11">
         <v>1.5999999999999996</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.1341778280820729</v>
+      <c r="C11" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.81697538858835772</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="5"/>
-        <v>0.875</v>
+        <v>0.87656250000000002</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="6"/>
-        <v>0.88749999999999996</v>
+        <v>0.87812500000000004</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.88124999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.87734375000000009</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="7"/>
-        <v>-1.6339567226766327E-3</v>
+        <v>-3.4354748427567472E-4</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="2"/>
-        <v>8.2091849000991424E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.298279130323106E-4</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4252475282798844E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.9527305393939329E-4</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
-        <v>3.4252475282798844E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.9527305393939329E-4</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
-        <v>-5.5967062256644365E-6</v>
+        <f t="shared" si="3"/>
+        <v>-1.0144031485527417E-7</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="8"/>
@@ -1887,41 +1922,41 @@
       <c r="B12" s="4">
         <v>1.7999999999999998</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.16367249731470168</v>
+      <c r="C12" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.76530528628790906</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="5"/>
-        <v>0.875</v>
+        <v>0.87656250000000002</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="6"/>
-        <v>0.88124999999999998</v>
+        <v>0.87734375000000009</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0.87812500000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.876953125</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="7"/>
-        <v>-1.6339567226766327E-3</v>
+        <v>-3.4354748427567472E-4</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4252475282798844E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.9527305393939329E-4</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="2"/>
-        <v>9.298279130323106E-4</v>
+        <f t="shared" si="1"/>
+        <v>-2.3604455145709302E-5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
-        <v>9.298279130323106E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.3604455145709302E-5</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
-        <v>-1.5192985694315273E-6</v>
+        <f t="shared" si="3"/>
+        <v>8.1092511830064353E-9</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="8"/>
@@ -1932,41 +1967,41 @@
       <c r="B13">
         <v>1.9999999999999996</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.15291506282905831</v>
+      <c r="C13" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.34001376811565509</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="5"/>
-        <v>0.875</v>
+        <v>0.876953125</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="6"/>
-        <v>0.87812500000000004</v>
+        <v>0.87734375000000009</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0.87656250000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.87714843750000004</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="7"/>
-        <v>-1.6339567226766327E-3</v>
+        <v>-2.3604455145709302E-5</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
-        <v>9.298279130323106E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.9527305393939329E-4</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.4354748427567472E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.3596754571776337E-4</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>3.4354748427567472E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.3596754571776337E-4</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
-        <v>5.6134172149088351E-7</v>
+        <f t="shared" si="3"/>
+        <v>-3.2094398341671245E-9</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="8"/>
@@ -1977,41 +2012,41 @@
       <c r="B14" s="4">
         <v>2.1999999999999997</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.10778832700146879</v>
+      <c r="C14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.12530291018431661</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="5"/>
-        <v>0.87656250000000002</v>
+        <v>0.876953125</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="6"/>
-        <v>0.87812500000000004</v>
+        <v>0.87714843750000004</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.87734375000000009</v>
+        <f t="shared" si="0"/>
+        <v>0.87705078125000002</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="7"/>
-        <v>-3.4354748427567472E-4</v>
+        <v>-2.3604455145709302E-5</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="2"/>
-        <v>9.298279130323106E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.3596754571776337E-4</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9527305393939329E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.6214849831981439E-5</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>2.9527305393939329E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.6214849831981439E-5</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
-        <v>-1.0144031485527417E-7</v>
+        <f t="shared" si="3"/>
+        <v>-1.32692090138179E-9</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="8"/>
@@ -2022,41 +2057,41 @@
       <c r="B15">
         <v>2.3999999999999995</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>3.9384747075941862E-2</v>
+      <c r="C15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.19257293166122524</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="5"/>
-        <v>0.87656250000000002</v>
+        <v>0.876953125</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="6"/>
-        <v>0.87734375000000009</v>
+        <v>0.87705078125000002</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.876953125</v>
+        <f t="shared" si="0"/>
+        <v>0.87700195312499996</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="7"/>
-        <v>-3.4354748427567472E-4</v>
+        <v>-2.3604455145709302E-5</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9527305393939329E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.6214849831981439E-5</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.3604455145709302E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.6313522600119867E-5</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>2.3604455145709302E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.6313522600119867E-5</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
-        <v>8.1092511830064353E-9</v>
+        <f t="shared" si="3"/>
+        <v>-3.850718124830444E-10</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="8"/>
@@ -2067,9 +2102,9 @@
       <c r="B16" s="4">
         <v>2.5999999999999996</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-3.7723064207162982E-2</v>
+      <c r="C16" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.22299203635004383</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="5"/>
@@ -2077,375 +2112,375 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="6"/>
-        <v>0.87734375000000009</v>
+        <v>0.87700195312499996</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.87714843750000004</v>
+        <f t="shared" si="0"/>
+        <v>0.87697753906249998</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="7"/>
         <v>-2.3604455145709302E-5</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9527305393939329E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.6313522600119867E-5</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3596754571776337E-4</v>
+        <f t="shared" si="1"/>
+        <v>-3.643385068530236E-6</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
-        <v>1.3596754571776337E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.643385068530236E-6</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
-        <v>-3.2094398341671245E-9</v>
-      </c>
-      <c r="O16" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6000119428668967E-11</v>
+      </c>
+      <c r="O16" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.87697753906249998</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2.8</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-0.10776444848507083</v>
+      <c r="C17" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.66399328285018644</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="5"/>
-        <v>0.876953125</v>
+        <v>0.87697753906249998</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="6"/>
-        <v>0.87714843750000004</v>
+        <v>0.87700195312499996</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.87705078125000002</v>
+        <f t="shared" si="0"/>
+        <v>0.87698974609374991</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="7"/>
-        <v>-2.3604455145709302E-5</v>
+        <v>-3.643385068530236E-6</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3596754571776337E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.6313522600119867E-5</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="2"/>
-        <v>5.6214849831981439E-5</v>
+        <f t="shared" si="1"/>
+        <v>6.3355890804750459E-6</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
-        <v>5.6214849831981439E-5</v>
+        <f t="shared" si="2"/>
+        <v>6.3355890804750459E-6</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
-        <v>-1.32692090138179E-9</v>
-      </c>
-      <c r="O17" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.3082990656145989E-11</v>
+      </c>
+      <c r="O17" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.87698974609374991</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>2.9999999999999996</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-0.15624453346607292</v>
+      <c r="C18" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.57077466716878789</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="5"/>
-        <v>0.876953125</v>
+        <v>0.87697753906249998</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="6"/>
-        <v>0.87705078125000002</v>
+        <v>0.87698974609374991</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.87700195312499996</v>
+        <f t="shared" si="0"/>
+        <v>0.876983642578125</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="7"/>
-        <v>-2.3604455145709302E-5</v>
+        <v>-3.643385068530236E-6</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="2"/>
-        <v>5.6214849831981439E-5</v>
+        <f t="shared" si="1"/>
+        <v>6.3355890804750459E-6</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6313522600119867E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.3462320829216168E-6</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>1.6313522600119867E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.3462320829216168E-6</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
-        <v>-3.850718124830444E-10</v>
+        <f t="shared" si="3"/>
+        <v>-4.904841869692977E-12</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.876983642578125</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3.1999999999999993</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-0.17221876277602499</v>
+      <c r="C19" s="4">
+        <f t="shared" si="4"/>
+        <v>5.3440241877162897E-3</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="5"/>
-        <v>0.876953125</v>
+        <v>0.87697753906249998</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="6"/>
-        <v>0.87700195312499996</v>
+        <v>0.876983642578125</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0.87697753906249998</v>
+        <f t="shared" si="0"/>
+        <v>0.87698059082031254</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="7"/>
-        <v>-2.3604455145709302E-5</v>
+        <v>-3.643385068530236E-6</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6313522600119867E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.3462320829216168E-6</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.643385068530236E-6</v>
+        <f t="shared" si="1"/>
+        <v>-1.1485439739278291E-6</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>3.643385068530236E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.1485439739278291E-6</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
-        <v>8.6000119428668967E-11</v>
-      </c>
-      <c r="O19" s="5">
+        <f t="shared" si="3"/>
+        <v>4.1845879651590331E-12</v>
+      </c>
+      <c r="O19" s="10">
         <f t="shared" si="8"/>
-        <v>0.87697753906249998</v>
+        <v>0.87698059082031254</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>3.3999999999999995</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-0.15000866463924467</v>
+      <c r="C20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34231027689927584</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="5"/>
-        <v>0.87697753906249998</v>
+        <v>0.87698059082031254</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="6"/>
-        <v>0.87700195312499996</v>
+        <v>0.876983642578125</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0.87698974609374991</v>
+        <f t="shared" si="0"/>
+        <v>0.87698211669921877</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="7"/>
-        <v>-3.643385068530236E-6</v>
+        <v>-1.1485439739278291E-6</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20:K38" si="9">(SIN(((F20+3)^2)/2))/2+(LN(F20+2))/2-1</f>
-        <v>1.6313522600119867E-5</v>
+        <v>1.3462320829216168E-6</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" ref="L20:L38" si="10">(SIN(((G20+3)^2)/2))/2+(LN(G20+2))/2-1</f>
-        <v>6.3355890804750459E-6</v>
+        <v>9.8852184216013939E-8</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
-        <v>6.3355890804750459E-6</v>
+        <f t="shared" si="2"/>
+        <v>9.8852184216013939E-8</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
-        <v>-2.3082990656145989E-11</v>
+        <f t="shared" si="3"/>
+        <v>-1.1353608049090648E-13</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698974609374991</v>
+        <v>0.87698211669921877</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3.5999999999999996</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-9.0087690539560894E-2</v>
+      <c r="C21" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.3825149089449669E-2</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>0.87697753906249998</v>
+        <v>0.87698059082031254</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698974609374991</v>
+        <v>0.87698211669921877</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0.876983642578125</v>
+        <f t="shared" si="0"/>
+        <v>0.87698135375976571</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="7"/>
-        <v>-3.643385068530236E-6</v>
+        <v>-1.1485439739278291E-6</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
-        <v>6.3355890804750459E-6</v>
+        <v>9.8852184216013939E-8</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="10"/>
-        <v>1.3462320829216168E-6</v>
+        <v>-5.2484386237061642E-7</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
-        <v>1.3462320829216168E-6</v>
+        <f t="shared" si="2"/>
+        <v>5.2484386237061642E-7</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
-        <v>-4.904841869692977E-12</v>
+        <f t="shared" si="3"/>
+        <v>6.0280625537877837E-13</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="8"/>
-        <v>0.876983642578125</v>
+        <v>0.87698135375976571</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>3.7999999999999994</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1.0029606628991772E-3</v>
+      <c r="C22" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.5730318122645075</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>0.87697753906249998</v>
+        <v>0.87698135375976571</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="6"/>
-        <v>0.876983642578125</v>
+        <v>0.87698211669921877</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0.87698059082031254</v>
+        <f t="shared" si="0"/>
+        <v>0.87698173522949219</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="7"/>
-        <v>-3.643385068530236E-6</v>
+        <v>-5.2484386237061642E-7</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
-        <v>1.3462320829216168E-6</v>
+        <v>9.8852184216013939E-8</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1485439739278291E-6</v>
+        <v>-2.1299533092822287E-7</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>1.1485439739278291E-6</v>
+        <f t="shared" si="2"/>
+        <v>2.1299533092822287E-7</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
-        <v>4.1845879651590331E-12</v>
+        <f t="shared" si="3"/>
+        <v>1.117892921512761E-13</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698059082031254</v>
+        <v>0.87698173522949219</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3.9999999999999991</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.11169543006206872</v>
+      <c r="C23" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.39979903031853758</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698059082031254</v>
+        <v>0.87698173522949219</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="6"/>
-        <v>0.876983642578125</v>
+        <v>0.87698211669921877</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0.87698211669921877</v>
+        <f t="shared" si="0"/>
+        <v>0.87698192596435542</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="7"/>
-        <v>-1.1485439739278291E-6</v>
+        <v>-2.1299533092822287E-7</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="9"/>
-        <v>1.3462320829216168E-6</v>
+        <v>9.8852184216013939E-8</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="10"/>
-        <v>9.8852184216013939E-8</v>
+        <v>-5.7071446124545844E-8</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
-        <v>9.8852184216013939E-8</v>
+        <f t="shared" si="2"/>
+        <v>5.7071446124545844E-8</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
-        <v>-1.1353608049090648E-13</v>
+        <f t="shared" si="3"/>
+        <v>1.2155951553849885E-14</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698211669921877</v>
+        <v>0.87698192596435542</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>4.1999999999999993</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.2272289850789615</v>
+      <c r="C24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26648524848897681</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698059082031254</v>
+        <v>0.87698192596435542</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="6"/>
         <v>0.87698211669921877</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0.87698135375976571</v>
+        <f t="shared" si="0"/>
+        <v>0.87698202133178715</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="7"/>
-        <v>-1.1485439739278291E-6</v>
+        <v>-5.7071446124545844E-8</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="9"/>
@@ -2453,269 +2488,269 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="10"/>
-        <v>-5.2484386237061642E-7</v>
+        <v>2.0890400520556796E-8</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>5.2484386237061642E-7</v>
+        <f t="shared" si="2"/>
+        <v>2.0890400520556796E-8</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
-        <v>6.0280625537877837E-13</v>
+        <f t="shared" si="3"/>
+        <v>-1.1922453678291416E-15</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698135375976571</v>
+        <v>0.87698202133178715</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4.3999999999999995</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.33198711592149288</v>
+      <c r="C25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.31804511466111962</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698135375976571</v>
+        <v>0.87698192596435542</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698211669921877</v>
+        <v>0.87698202133178715</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0.87698173522949219</v>
+        <f t="shared" si="0"/>
+        <v>0.87698197364807129</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="7"/>
-        <v>-5.2484386237061642E-7</v>
+        <v>-5.7071446124545844E-8</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="9"/>
-        <v>9.8852184216013939E-8</v>
+        <v>2.0890400520556796E-8</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="10"/>
-        <v>-2.1299533092822287E-7</v>
+        <v>-1.8090514863899898E-8</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
-        <v>2.1299533092822287E-7</v>
+        <f t="shared" si="2"/>
+        <v>1.8090514863899898E-8</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
-        <v>1.117892921512761E-13</v>
+        <f t="shared" si="3"/>
+        <v>1.0324518444203589E-15</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698173522949219</v>
+        <v>0.87698197364807129</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>4.5999999999999988</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.41196907026895957</v>
+      <c r="C26" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.34112009210066296</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698173522949219</v>
+        <v>0.87698197364807129</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698211669921877</v>
+        <v>0.87698202133178715</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0.87698192596435542</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199748992922</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="7"/>
-        <v>-2.1299533092822287E-7</v>
+        <v>-1.8090514863899898E-8</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="9"/>
-        <v>9.8852184216013939E-8</v>
+        <v>2.0890400520556796E-8</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="10"/>
-        <v>-5.7071446124545844E-8</v>
+        <v>1.3999448267298931E-9</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
-        <v>5.7071446124545844E-8</v>
+        <f t="shared" si="2"/>
+        <v>1.3999448267298931E-9</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
-        <v>1.2155951553849885E-14</v>
+        <f t="shared" si="3"/>
+        <v>-2.5325722696596898E-17</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698192596435542</v>
+        <v>0.87698199748992922</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4.7999999999999989</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.45700571238698418</v>
+      <c r="C27" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.4611702476823436</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698192596435542</v>
+        <v>0.87698197364807129</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698211669921877</v>
+        <v>0.87698199748992922</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0.87698202133178715</v>
+        <f t="shared" si="0"/>
+        <v>0.8769819855690002</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="7"/>
-        <v>-5.7071446124545844E-8</v>
+        <v>-1.8090514863899898E-8</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="9"/>
-        <v>9.8852184216013939E-8</v>
+        <v>1.3999448267298931E-9</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="10"/>
-        <v>2.0890400520556796E-8</v>
+        <v>-8.3452842414288853E-9</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
-        <v>2.0890400520556796E-8</v>
+        <f t="shared" si="2"/>
+        <v>8.3452842414288853E-9</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
-        <v>-1.1922453678291416E-15</v>
+        <f t="shared" si="3"/>
+        <v>1.5097048861303883E-16</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698202133178715</v>
+        <v>0.8769819855690002</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>4.9999999999999991</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.46236994460850278</v>
+      <c r="C28" s="4">
+        <f t="shared" si="4"/>
+        <v>0.24866841514849902</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698192596435542</v>
+        <v>0.8769819855690002</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698202133178715</v>
+        <v>0.87698199748992922</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0.87698197364807129</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199152946477</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="7"/>
-        <v>-5.7071446124545844E-8</v>
+        <v>-8.3452842414288853E-9</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="9"/>
-        <v>2.0890400520556796E-8</v>
+        <v>1.3999448267298931E-9</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="10"/>
-        <v>-1.8090514863899898E-8</v>
+        <v>-3.4726697073494961E-9</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>1.8090514863899898E-8</v>
+        <f t="shared" si="2"/>
+        <v>3.4726697073494961E-9</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
-        <v>1.0324518444203589E-15</v>
+        <f t="shared" si="3"/>
+        <v>2.8980415784431208E-17</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698197364807129</v>
+        <v>0.87698199152946477</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>5.1999999999999993</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.42952750314652266</v>
+      <c r="C29" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39008674528525678</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698197364807129</v>
+        <v>0.87698199152946477</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698202133178715</v>
+        <v>0.87698199748992922</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0.87698199748992922</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199450969705</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="7"/>
-        <v>-1.8090514863899898E-8</v>
+        <v>-3.4726697073494961E-9</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="9"/>
-        <v>2.0890400520556796E-8</v>
+        <v>1.3999448267298931E-9</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="10"/>
-        <v>1.3999448267298931E-9</v>
+        <v>-1.0363622182651966E-9</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>1.3999448267298931E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.0363622182651966E-9</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
-        <v>-2.5325722696596898E-17</v>
+        <f t="shared" si="3"/>
+        <v>3.5989436812110748E-18</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199748992922</v>
+        <v>0.87698199450969705</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>5.3999999999999995</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.36590964695790329</v>
+      <c r="C30" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.3298838641699815</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698197364807129</v>
+        <v>0.87698199450969705</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="6"/>
         <v>0.87698199748992922</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>0.8769819855690002</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199599981308</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="7"/>
-        <v>-1.8090514863899898E-8</v>
+        <v>-1.0363622182651966E-9</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="9"/>
@@ -2723,379 +2758,379 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="10"/>
-        <v>-8.3452842414288853E-9</v>
+        <v>1.8179124872119701E-10</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>8.3452842414288853E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.8179124872119701E-10</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
-        <v>1.5097048861303883E-16</v>
+        <f t="shared" si="3"/>
+        <v>-1.8840158178589981E-19</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="8"/>
-        <v>0.8769819855690002</v>
+        <v>0.87698199599981308</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>5.5999999999999988</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0.28374367232910336</v>
+      <c r="C31" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.31528422161775072</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="5"/>
-        <v>0.8769819855690002</v>
+        <v>0.87698199450969705</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199748992922</v>
+        <v>0.87698199599981308</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0.87698199152946477</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199525475506</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="7"/>
-        <v>-8.3452842414288853E-9</v>
+        <v>-1.0363622182651966E-9</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="9"/>
-        <v>1.3999448267298931E-9</v>
+        <v>1.8179124872119701E-10</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="10"/>
-        <v>-3.4726697073494961E-9</v>
+        <v>-4.2728565130545348E-10</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
-        <v>3.4726697073494961E-9</v>
+        <f t="shared" si="2"/>
+        <v>4.2728565130545348E-10</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
-        <v>2.8980415784431208E-17</v>
+        <f t="shared" si="3"/>
+        <v>4.4282270541980907E-19</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199152946477</v>
+        <v>0.87698199525475506</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>5.7999999999999989</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.19812592811796303</v>
+      <c r="C32" s="4">
+        <f t="shared" si="4"/>
+        <v>0.45334812529766344</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698199152946477</v>
+        <v>0.87698199525475506</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199748992922</v>
+        <v>0.87698199599981308</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0.87698199450969705</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199562728407</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="7"/>
-        <v>-3.4726697073494961E-9</v>
+        <v>-4.2728565130545348E-10</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="9"/>
-        <v>1.3999448267298931E-9</v>
+        <v>1.8179124872119701E-10</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0363622182651966E-9</v>
+        <v>-1.2274714578097701E-10</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
-        <v>1.0363622182651966E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.2274714578097701E-10</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
-        <v>3.5989436812110748E-18</v>
+        <f t="shared" si="3"/>
+        <v>5.2448094130910207E-20</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199450969705</v>
+        <v>0.87698199562728407</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>5.9999999999999991</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.12464159377889783</v>
+      <c r="C33" s="4">
+        <f>(SIN(($B33+3)^2/2))/2+(LN($B33+2))/2-1</f>
+        <v>0.2067963592641282</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698199450969705</v>
+        <v>0.87698199562728407</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199748992922</v>
+        <v>0.87698199599981308</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0.87698199599981308</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199581354852</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="7"/>
-        <v>-1.0363622182651966E-9</v>
+        <v>-1.2274714578097701E-10</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="9"/>
-        <v>1.3999448267298931E-9</v>
+        <v>1.8179124872119701E-10</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="10"/>
-        <v>1.8179124872119701E-10</v>
+        <v>2.9522162492412463E-11</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>1.8179124872119701E-10</v>
+        <f t="shared" si="2"/>
+        <v>2.9522162492412463E-11</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
-        <v>-1.8840158178589981E-19</v>
+        <f t="shared" si="3"/>
+        <v>-3.6237611832258441E-21</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199599981308</v>
+        <v>0.87698199581354852</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>6.1999999999999984</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>7.6907034038911526E-2</v>
+      <c r="C34" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.44584128263994738</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698199450969705</v>
+        <v>0.87698199562728407</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199599981308</v>
+        <v>0.87698199581354852</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0.87698199525475506</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199572041635</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="7"/>
-        <v>-1.0363622182651966E-9</v>
+        <v>-1.2274714578097701E-10</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="9"/>
-        <v>1.8179124872119701E-10</v>
+        <v>2.9522162492412463E-11</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="10"/>
-        <v>-4.2728565130545348E-10</v>
+        <v>-4.6612713688887197E-11</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>4.2728565130545348E-10</v>
+        <f t="shared" si="2"/>
+        <v>4.6612713688887197E-11</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
-        <v>4.4282270541980907E-19</v>
+        <f t="shared" si="3"/>
+        <v>5.7215775624167793E-21</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199525475506</v>
+        <v>0.87698199572041635</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>6.3999999999999986</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>6.4422763777831404E-2</v>
+      <c r="C35" s="4">
+        <f t="shared" si="4"/>
+        <v>0.16232457712714177</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698199525475506</v>
+        <v>0.87698199572041635</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199599981308</v>
+        <v>0.87698199581354852</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0.87698199562728407</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199576698244</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="7"/>
-        <v>-4.2728565130545348E-10</v>
+        <v>-4.6612713688887197E-11</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="9"/>
-        <v>1.8179124872119701E-10</v>
+        <v>2.9522162492412463E-11</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2274714578097701E-10</v>
+        <v>-8.5451645759349049E-12</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
-        <v>1.2274714578097701E-10</v>
+        <f t="shared" si="2"/>
+        <v>8.5451645759349049E-12</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
-        <v>5.2448094130910207E-20</v>
+        <f t="shared" si="3"/>
+        <v>3.983133098024749E-22</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199562728407</v>
+        <v>0.87698199576698244</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>6.5999999999999988</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>9.1076014955512985E-2</v>
+      <c r="C36" s="4">
+        <f t="shared" si="4"/>
+        <v>0.50806449935696651</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698199562728407</v>
+        <v>0.87698199576698244</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199599981308</v>
+        <v>0.87698199581354852</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0.87698199581354852</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199579026548</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="7"/>
-        <v>-1.2274714578097701E-10</v>
+        <v>-8.5451645759349049E-12</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="9"/>
-        <v>1.8179124872119701E-10</v>
+        <v>2.9522162492412463E-11</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="10"/>
-        <v>2.9522162492412463E-11</v>
+        <v>1.0488498958238779E-11</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
-        <v>2.9522162492412463E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.0488498958238779E-11</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
-        <v>-3.6237611832258441E-21</v>
+        <f t="shared" si="3"/>
+        <v>-8.9625949752672166E-23</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199581354852</v>
+        <v>0.87698199579026548</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>6.7999999999999989</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.15452933683070547</v>
+      <c r="C37" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.30307566365476624</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698199562728407</v>
+        <v>0.87698199576698244</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199581354852</v>
+        <v>0.87698199579026548</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>0.87698199572041635</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199577862401</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="7"/>
-        <v>-1.2274714578097701E-10</v>
+        <v>-8.5451645759349049E-12</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="9"/>
-        <v>2.9522162492412463E-11</v>
+        <v>1.0488498958238779E-11</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="10"/>
-        <v>-4.6612713688887197E-11</v>
+        <v>9.7144514654701197E-13</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>4.6612713688887197E-11</v>
+        <f t="shared" si="2"/>
+        <v>9.7144514654701197E-13</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
-        <v>5.7215775624167793E-21</v>
+        <f t="shared" si="3"/>
+        <v>-8.3011586537374191E-24</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199572041635</v>
+        <v>0.87698199577862401</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>6.9999999999999991</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.24659177321476178</v>
+      <c r="C38" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.2575138183854602E-2</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="5"/>
-        <v>0.87698199572041635</v>
+        <v>0.87698199576698244</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="6"/>
-        <v>0.87698199581354852</v>
+        <v>0.87698199577862401</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>0.87698199576698244</v>
+        <f t="shared" si="0"/>
+        <v>0.87698199577280322</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="7"/>
-        <v>-4.6612713688887197E-11</v>
+        <v>-8.5451645759349049E-12</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="9"/>
-        <v>2.9522162492412463E-11</v>
+        <v>9.7144514654701197E-13</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="10"/>
-        <v>-8.5451645759349049E-12</v>
+        <v>-3.7867486923914839E-12</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>8.5451645759349049E-12</v>
+        <f t="shared" si="2"/>
+        <v>3.7867486923914839E-12</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
-        <v>3.983133098024749E-22</v>
+        <f t="shared" si="3"/>
+        <v>3.235839078419153E-23</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="8"/>
-        <v>0.87698199576698244</v>
+        <v>0.87698199577280322</v>
       </c>
     </row>
   </sheetData>
@@ -3107,11 +3142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4703FAF-60A8-4C90-9BFC-BF810860B60C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,11 +3197,11 @@
         <v>0.8</v>
       </c>
       <c r="C5" s="6">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
         <f>ABS(B5-C5)</f>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="E5" s="6">
         <f>SIN(((B5+3)^2)/2)/2+LN(B5+2)/2-1</f>
@@ -3174,14 +3209,14 @@
       </c>
       <c r="F5" s="6">
         <f>SIN(((C5+3)^2)/2)/2+LN(C5+2)/2-1</f>
-        <v>-0.76530528628790906</v>
+        <v>4.3985267645745729E-2</v>
       </c>
       <c r="G5" s="6">
         <f>(B5+3)/2*COS(((B5+3)^2)/2)+1/(2*(B5+2))</f>
         <v>1.3040503921476463</v>
       </c>
       <c r="H5" s="6">
-        <f>IF(D5&lt;=Sheet1!F1,Лист1!C5,0)</f>
+        <f>IF(D5&lt;='Половинное деление'!F1,'Хорды и касательные'!C5,0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
@@ -3207,11 +3242,11 @@
       </c>
       <c r="C6" s="6">
         <f>C5-(B5-C5)/(E5-F5)*F5</f>
-        <v>0.67941680349547773</v>
+        <v>0.93036883892210853</v>
       </c>
       <c r="D6" s="6">
         <f>ABS(B6-C6)</f>
-        <v>0.1837346027198814</v>
+        <v>6.7217432706749403E-2</v>
       </c>
       <c r="E6" s="6">
         <f>SIN(((B6+3)^2)/2)/2+LN(B6+2)/2-1</f>
@@ -3219,14 +3254,14 @@
       </c>
       <c r="F6" s="6">
         <f>SIN(((C6+3)^2)/2)/2+LN(C6+2)/2-1</f>
-        <v>-0.27371206972530882</v>
+        <v>3.3339777659274761E-2</v>
       </c>
       <c r="G6" s="6">
         <f>(B6+3)/2*COS(((B6+3)^2)/2)+1/(2*(B6+2))</f>
         <v>0.9125888961931572</v>
       </c>
       <c r="H6" s="6">
-        <f>IF(D6&lt;=Sheet1!F2,Лист1!C6,0)</f>
+        <f>IF(D6&lt;='Половинное деление'!F2,'Хорды и касательные'!C6,0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="6"/>
@@ -3252,11 +3287,11 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" ref="C7:C9" si="1">C6-(B6-C6)/(E6-F6)*F6</f>
-        <v>0.87155210592028964</v>
+        <v>0.88090623586568073</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ref="D7:D9" si="2">ABS(B7-C7)</f>
-        <v>4.7130551443338442E-3</v>
+        <v>4.6410748010572433E-3</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ref="E7:E9" si="3">SIN(((B7+3)^2)/2)/2+LN(B7+2)/2-1</f>
@@ -3264,15 +3299,15 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" ref="F7:F9" si="4">SIN(((C7+3)^2)/2)/2+LN(C7+2)/2-1</f>
-        <v>-4.5414176054119348E-3</v>
+        <v>3.1541007444944036E-3</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" ref="G7:G9" si="5">(B7+3)/2*COS(((B7+3)^2)/2)+1/(2*(B7+2))</f>
         <v>0.82249113769135229</v>
       </c>
       <c r="H7" s="8">
-        <f>IF(D7&lt;=Sheet1!F3,Лист1!C7,0)</f>
-        <v>0.87155210592028964</v>
+        <f>IF(D7&lt;='Половинное деление'!F3,'Хорды и касательные'!C7,0)</f>
+        <v>0.88090623586568073</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -3297,11 +3332,11 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
-        <v>0.87696586668642706</v>
+        <v>0.87699420640206682</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>1.3949899853815673E-5</v>
+        <v>1.4389815785942339E-5</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="3"/>
@@ -3309,15 +3344,15 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="4"/>
-        <v>-1.318626384172461E-5</v>
+        <v>9.9815314682505374E-6</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="5"/>
         <v>0.81750428091937066</v>
       </c>
       <c r="H8" s="6">
-        <f>IF(D8&lt;=Sheet1!F4,Лист1!C8,0)</f>
-        <v>0.87696586668642706</v>
+        <f>IF(D8&lt;='Половинное деление'!F4,'Хорды и касательные'!C8,0)</f>
+        <v>0.87699420640206682</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -3342,11 +3377,11 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
-        <v>0.87698199562732093</v>
+        <v>0.87698199589109649</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="2"/>
-        <v>1.2983114583420274E-10</v>
+        <v>1.3394441111813649E-10</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="3"/>
@@ -3354,15 +3389,15 @@
       </c>
       <c r="F9" s="6">
         <f t="shared" si="4"/>
-        <v>-1.227169477147072E-10</v>
+        <v>9.2916785376928601E-11</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="5"/>
         <v>0.81748906286837064</v>
       </c>
       <c r="H9" s="6">
-        <f>IF(D9&lt;=Sheet1!F5,Лист1!C9,0)</f>
-        <v>0.87698199562732093</v>
+        <f>IF(D9&lt;='Половинное деление'!F5,'Хорды и касательные'!C9,0)</f>
+        <v>0.87698199589109649</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -3416,4 +3451,1115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>0.8</v>
+      </c>
+      <c r="C1">
+        <f>'Половинное деление'!F1</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>-0.77</f>
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>B4+C4*(1/(B$2))</f>
+        <v>0.90695144940235617</v>
+      </c>
+      <c r="B4">
+        <f>B1</f>
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <f>(SIN(((B4+3)^2)/2))/2+(LN(B4+2))/2-1</f>
+        <v>-8.2352616039814253E-2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>ABS(A4-B4)</f>
+        <v>0.10695144940235612</v>
+      </c>
+      <c r="F4" s="4">
+        <f>IF(E4&lt;=C$1,B4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A32" si="0">B5+C5*(1/(B$2))</f>
+        <v>0.87929062172122574</v>
+      </c>
+      <c r="B5">
+        <f>A4</f>
+        <v>0.90695144940235617</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C33" si="1">(SIN(((B5+3)^2)/2))/2+(LN(B5+2))/2-1</f>
+        <v>2.1298837314470465E-2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E33" si="2">ABS(A5-B5)</f>
+        <v>2.7660827681130429E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F33" si="3">IF(E5&lt;=C$1,B5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87686382226621806</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B33" si="4">A5</f>
+        <v>0.87929062172122574</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8686355803558818E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4267994550076777E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8769893473447764</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87686382226621806</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.6654310489885376E-5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2552507855834172E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698154262116268</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.8769893473447764</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0096371825579809E-6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>7.8047236137246401E-6</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.8769893473447764</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698202372637502</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698154262116268</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.7045101353161414E-7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>4.8110521233546422E-7</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698154262116268</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199405371302</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698202372637502</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.284794975437876E-8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9672661994162297E-8</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698202372637502</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199588374448</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199405371302</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.4091242617197963E-9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8300314597041734E-9</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199405371302</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577087887</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199588374448</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6906482010817854E-11</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.128656057503008E-10</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199588374448</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577783986</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577087887</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.3599347182853307E-12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>6.960987342097269E-12</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577087887</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577741021</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577783986</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3084646133829665E-13</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2965631052993558E-13</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577783986</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577741021</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.0761170560490427E-14</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6978419498391304E-14</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577741021</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>26</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>28</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87698199577743718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="e">
+        <f t="shared" ref="A5:A33" si="5">B33+C33*(1/(B$3))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87698199577743718</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>29</v>
+      </c>
+      <c r="E33" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/4_semestr/VichMath/Lab1/Половинное деление.xlsx
+++ b/4_semestr/VichMath/Lab1/Половинное деление.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshen\Documents\GitHub\labs\4_semestr\VichMath\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1AEB05-26A2-47FD-8F46-D8DFE9514253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871A7C8-11DA-45E4-BE91-203E85EB27EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="15" windowWidth="24450" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Половинное деление" sheetId="1" r:id="rId1"/>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="e">
-        <f t="shared" ref="A5:A33" si="5">B33+C33*(1/(B$3))</f>
+        <f t="shared" ref="A33" si="5">B33+C33*(1/(B$3))</f>
         <v>#VALUE!</v>
       </c>
       <c r="B33" s="4">
